--- a/REGULAR/OJT/BAYOT, JENNIFER A.xlsx
+++ b/REGULAR/OJT/BAYOT, JENNIFER A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132FEB0-D6E0-4897-A11F-C70BCBE50EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="324">
   <si>
     <t>PERIOD</t>
   </si>
@@ -976,19 +974,52 @@
   </si>
   <si>
     <t>5/31 -6/1,4</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>OFFICIAL</t>
+  </si>
+  <si>
+    <t>TAIWAN 2/22-26/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,7 +1243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,10 +1379,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1442,7 +1470,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1459,7 +1487,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1474,7 +1502,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1516,7 +1544,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1576,7 +1604,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1589,7 +1617,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1604,7 +1632,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1622,7 +1650,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1639,7 +1667,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1658,7 +1686,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1675,7 +1703,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1691,7 +1719,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1708,7 +1736,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1727,7 +1755,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1744,7 +1772,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1760,7 +1788,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1817,7 +1845,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1862,7 +1890,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1933,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1997,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2057,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2123,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2186,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2284,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2343,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2408,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2451,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2526,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,7 +2712,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2778,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2808,7 +2836,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2874,7 +2902,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2958,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3033,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3048,7 +3076,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3142,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3170,7 +3198,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3296,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3331,7 +3359,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3380,7 +3408,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3397,25 +3425,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K413" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K519" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3427,13 +3455,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3442,14 +3470,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3746,14 +3774,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3763,7 +3791,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3771,19 +3799,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K413"/>
+  <dimension ref="A2:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A403" activePane="bottomLeft"/>
+      <pane ySplit="1884" topLeftCell="A471" activePane="bottomLeft"/>
       <selection activeCell="D9" sqref="D9"/>
-      <selection pane="bottomLeft" activeCell="D410" sqref="D410"/>
+      <selection pane="bottomLeft" activeCell="F486" sqref="F486"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3798,64 +3826,64 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -3863,7 +3891,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -3876,24 +3904,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3928,16 +3956,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="49"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
       <c r="B9" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>76.963000000000022</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>169.96300000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3946,17 +3974,17 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.30600000000001</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>227.30600000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="13"/>
@@ -3976,11 +4004,11 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="13"/>
@@ -3996,7 +4024,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
         <v>47</v>
@@ -4016,7 +4044,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>35947</v>
       </c>
@@ -4040,7 +4068,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <f>EDATE(A13,1)</f>
         <v>35977</v>
@@ -4065,7 +4093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>55</v>
@@ -4087,7 +4115,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <f>EDATE(A14,1)</f>
         <v>36008</v>
@@ -4112,7 +4140,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="39">
         <f t="shared" ref="A17:A22" si="0">EDATE(A16,1)</f>
         <v>36039</v>
@@ -4133,11 +4161,11 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="51">
+      <c r="K17" s="50">
         <v>45198</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="20" t="s">
         <v>58</v>
@@ -4159,7 +4187,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <f>EDATE(A17,1)</f>
         <v>36069</v>
@@ -4182,7 +4210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -4200,7 +4228,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <f>EDATE(A19,1)</f>
         <v>36100</v>
@@ -4225,7 +4253,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <f t="shared" si="0"/>
         <v>36130</v>
@@ -4246,11 +4274,11 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="52">
+      <c r="K22" s="51">
         <v>45268</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39"/>
       <c r="B23" s="20" t="s">
         <v>62</v>
@@ -4272,7 +4300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="20" t="s">
         <v>64</v>
@@ -4294,7 +4322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>57</v>
@@ -4314,12 +4342,12 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="52">
+      <c r="K25" s="51">
         <v>45271</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="53" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="52" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="20"/>
@@ -4336,7 +4364,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>36161</v>
       </c>
@@ -4362,7 +4390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>48</v>
@@ -4384,7 +4412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39"/>
       <c r="B29" s="20" t="s">
         <v>51</v>
@@ -4404,7 +4432,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <f>EDATE(A27,1)</f>
         <v>36192</v>
@@ -4431,7 +4459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
       <c r="B31" s="20" t="s">
         <v>68</v>
@@ -4451,7 +4479,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <f>EDATE(A30,1)</f>
         <v>36220</v>
@@ -4478,7 +4506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="20" t="s">
         <v>70</v>
@@ -4500,7 +4528,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="20" t="s">
         <v>72</v>
@@ -4520,7 +4548,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <f>EDATE(A32,1)</f>
         <v>36251</v>
@@ -4545,7 +4573,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <f t="shared" ref="A36:A38" si="1">EDATE(A35,1)</f>
         <v>36281</v>
@@ -4570,7 +4598,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <f t="shared" si="1"/>
         <v>36312</v>
@@ -4595,7 +4623,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <f t="shared" si="1"/>
         <v>36342</v>
@@ -4620,7 +4648,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <f>EDATE(A38,1)</f>
         <v>36373</v>
@@ -4645,7 +4673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39"/>
       <c r="B40" s="20" t="s">
         <v>78</v>
@@ -4667,7 +4695,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39">
         <f>EDATE(A39,1)</f>
         <v>36404</v>
@@ -4692,7 +4720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -4714,7 +4742,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <f>EDATE(A41,1)</f>
         <v>36434</v>
@@ -4739,7 +4767,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <f>EDATE(A43,1)</f>
         <v>36465</v>
@@ -4762,7 +4790,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="20" t="s">
         <v>82</v>
@@ -4784,7 +4812,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <f>EDATE(A44,1)</f>
         <v>36495</v>
@@ -4809,8 +4837,8 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="53" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="52" t="s">
         <v>83</v>
       </c>
       <c r="B47" s="20"/>
@@ -4827,7 +4855,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
         <v>36526</v>
       </c>
@@ -4851,7 +4879,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39"/>
       <c r="B49" s="20" t="s">
         <v>68</v>
@@ -4873,7 +4901,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
         <f>EDATE(A48,1)</f>
         <v>36557</v>
@@ -4894,11 +4922,11 @@
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="52">
+      <c r="K50" s="51">
         <v>44967</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="20" t="s">
         <v>68</v>
@@ -4920,7 +4948,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
         <f>EDATE(A50,1)</f>
         <v>36586</v>
@@ -4943,7 +4971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="20" t="s">
         <v>86</v>
@@ -4965,7 +4993,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
         <f>EDATE(A52,1)</f>
         <v>36617</v>
@@ -4988,7 +5016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -5006,7 +5034,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
         <f>EDATE(A54,1)</f>
         <v>36647</v>
@@ -5031,7 +5059,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="39">
         <f t="shared" ref="A57:A59" si="2">EDATE(A56,1)</f>
         <v>36678</v>
@@ -5056,7 +5084,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39">
         <f t="shared" si="2"/>
         <v>36708</v>
@@ -5081,7 +5109,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39">
         <f t="shared" si="2"/>
         <v>36739</v>
@@ -5106,7 +5134,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20" t="s">
         <v>90</v>
@@ -5128,7 +5156,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39">
         <f>EDATE(A59,1)</f>
         <v>36770</v>
@@ -5153,7 +5181,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="20" t="s">
         <v>48</v>
@@ -5175,7 +5203,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="20" t="s">
         <v>92</v>
@@ -5197,7 +5225,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39">
         <f>EDATE(A61,1)</f>
         <v>36800</v>
@@ -5218,11 +5246,11 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="52">
+      <c r="K64" s="51">
         <v>45219</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="20" t="s">
         <v>88</v>
@@ -5244,7 +5272,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39">
         <f>EDATE(A64,1)</f>
         <v>36831</v>
@@ -5265,11 +5293,11 @@
       <c r="H66" s="38"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="52">
+      <c r="K66" s="51">
         <v>45259</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="20" t="s">
         <v>53</v>
@@ -5291,7 +5319,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="20" t="s">
         <v>95</v>
@@ -5313,7 +5341,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39">
         <f>EDATE(A66,1)</f>
         <v>36861</v>
@@ -5338,7 +5366,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="20" t="s">
         <v>97</v>
@@ -5358,8 +5386,8 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="53" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B71" s="20"/>
@@ -5376,7 +5404,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39">
         <v>36892</v>
       </c>
@@ -5396,11 +5424,11 @@
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="52">
+      <c r="K72" s="51">
         <v>44937</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="20" t="s">
         <v>99</v>
@@ -5422,7 +5450,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <f>EDATE(A72,1)</f>
         <v>36923</v>
@@ -5447,7 +5475,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39">
         <f t="shared" ref="A75:A92" si="3">EDATE(A74,1)</f>
         <v>36951</v>
@@ -5468,11 +5496,11 @@
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="52">
+      <c r="K75" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="20" t="s">
         <v>59</v>
@@ -5488,11 +5516,11 @@
       <c r="H76" s="38"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="52" t="s">
+      <c r="K76" s="51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="20" t="s">
         <v>99</v>
@@ -5514,7 +5542,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
         <f>EDATE(A75,1)</f>
         <v>36982</v>
@@ -5539,7 +5567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39"/>
       <c r="B79" s="20" t="s">
         <v>59</v>
@@ -5559,7 +5587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="20" t="s">
         <v>88</v>
@@ -5581,7 +5609,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39">
         <f>EDATE(A78,1)</f>
         <v>37012</v>
@@ -5606,7 +5634,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39"/>
       <c r="B82" s="20" t="s">
         <v>103</v>
@@ -5628,7 +5656,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39">
         <f>EDATE(A81,1)</f>
         <v>37043</v>
@@ -5653,7 +5681,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
         <f t="shared" si="3"/>
         <v>37073</v>
@@ -5678,7 +5706,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="20" t="s">
         <v>107</v>
@@ -5702,7 +5730,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39">
         <f>EDATE(A84,1)</f>
         <v>37104</v>
@@ -5727,7 +5755,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39">
         <f t="shared" si="3"/>
         <v>37135</v>
@@ -5752,7 +5780,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="20" t="s">
         <v>64</v>
@@ -5774,7 +5802,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="20" t="s">
         <v>111</v>
@@ -5796,7 +5824,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
         <f>EDATE(A87,1)</f>
         <v>37165</v>
@@ -5821,7 +5849,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39">
         <f t="shared" si="3"/>
         <v>37196</v>
@@ -5846,7 +5874,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39">
         <f t="shared" si="3"/>
         <v>37226</v>
@@ -5871,7 +5899,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
       <c r="B93" s="20" t="s">
         <v>58</v>
@@ -5893,8 +5921,8 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="53" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="52" t="s">
         <v>114</v>
       </c>
       <c r="B94" s="20"/>
@@ -5911,7 +5939,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39">
         <v>37257</v>
       </c>
@@ -5935,7 +5963,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39">
         <f>EDATE(A95,1)</f>
         <v>37288</v>
@@ -5960,7 +5988,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39">
         <f t="shared" ref="A97:A114" si="4">EDATE(A96,1)</f>
         <v>37316</v>
@@ -5985,7 +6013,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39">
         <f t="shared" si="4"/>
         <v>37347</v>
@@ -6010,7 +6038,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39">
         <f t="shared" si="4"/>
         <v>37377</v>
@@ -6035,7 +6063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39"/>
       <c r="B100" s="20" t="s">
         <v>118</v>
@@ -6057,7 +6085,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39">
         <f>EDATE(A99,1)</f>
         <v>37408</v>
@@ -6082,7 +6110,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39">
         <f t="shared" si="4"/>
         <v>37438</v>
@@ -6103,11 +6131,11 @@
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="52">
+      <c r="K102" s="51">
         <v>45108</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
@@ -6125,7 +6153,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39">
         <f>EDATE(A102,1)</f>
         <v>37469</v>
@@ -6150,7 +6178,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13">
@@ -6168,7 +6196,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39">
         <f>EDATE(A104,1)</f>
         <v>37500</v>
@@ -6193,7 +6221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="20" t="s">
         <v>107</v>
@@ -6215,7 +6243,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="20" t="s">
         <v>107</v>
@@ -6237,7 +6265,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="20" t="s">
         <v>53</v>
@@ -6259,7 +6287,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39"/>
       <c r="B110" s="20" t="s">
         <v>121</v>
@@ -6281,7 +6309,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39"/>
       <c r="B111" s="20" t="s">
         <v>59</v>
@@ -6301,7 +6329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39">
         <f>EDATE(A106,1)</f>
         <v>37530</v>
@@ -6326,7 +6354,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39">
         <f t="shared" si="4"/>
         <v>37561</v>
@@ -6351,7 +6379,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39">
         <f t="shared" si="4"/>
         <v>37591</v>
@@ -6376,7 +6404,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39"/>
       <c r="B115" s="20" t="s">
         <v>104</v>
@@ -6398,7 +6426,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39"/>
       <c r="B116" s="20" t="s">
         <v>131</v>
@@ -6418,8 +6446,8 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="53" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="52" t="s">
         <v>132</v>
       </c>
       <c r="B117" s="20"/>
@@ -6436,7 +6464,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39">
         <v>37622</v>
       </c>
@@ -6460,7 +6488,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39">
         <f>EDATE(A118,1)</f>
         <v>37653</v>
@@ -6485,7 +6513,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39">
         <f t="shared" ref="A120:A127" si="5">EDATE(A119,1)</f>
         <v>37681</v>
@@ -6508,7 +6536,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39"/>
       <c r="B121" s="20" t="s">
         <v>133</v>
@@ -6530,7 +6558,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39">
         <f>EDATE(A120,1)</f>
         <v>37712</v>
@@ -6555,7 +6583,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39">
         <f t="shared" si="5"/>
         <v>37742</v>
@@ -6580,7 +6608,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39">
         <f t="shared" si="5"/>
         <v>37773</v>
@@ -6605,7 +6633,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="20" t="s">
         <v>138</v>
@@ -6627,7 +6655,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="39">
         <f>EDATE(A124,1)</f>
         <v>37803</v>
@@ -6648,7 +6676,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39">
         <f t="shared" si="5"/>
         <v>37834</v>
@@ -6669,7 +6697,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="39">
         <f>EDATE(A127,1)</f>
         <v>37865</v>
@@ -6694,7 +6722,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39"/>
       <c r="B129" s="20" t="s">
         <v>57</v>
@@ -6712,11 +6740,11 @@
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="52">
+      <c r="K129" s="51">
         <v>45200</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="39"/>
       <c r="B130" s="20" t="s">
         <v>118</v>
@@ -6738,7 +6766,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="39">
         <f>EDATE(A128,1)</f>
         <v>37895</v>
@@ -6759,11 +6787,11 @@
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="52">
+      <c r="K131" s="51">
         <v>45219</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="39"/>
       <c r="B132" s="20" t="s">
         <v>140</v>
@@ -6785,7 +6813,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="39">
         <f>EDATE(A131,1)</f>
         <v>37926</v>
@@ -6810,7 +6838,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="39"/>
       <c r="B134" s="20" t="s">
         <v>121</v>
@@ -6830,7 +6858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="39"/>
       <c r="B135" s="20" t="s">
         <v>147</v>
@@ -6852,7 +6880,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="39">
         <f>EDATE(A133,1)</f>
         <v>37956</v>
@@ -6877,8 +6905,8 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="53" t="s">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="52" t="s">
         <v>144</v>
       </c>
       <c r="B137" s="20"/>
@@ -6895,7 +6923,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="39">
         <v>37987</v>
       </c>
@@ -6919,7 +6947,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="39">
         <f>EDATE(A138,1)</f>
         <v>38018</v>
@@ -6944,7 +6972,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="39">
         <f t="shared" ref="A140:A153" si="6">EDATE(A139,1)</f>
         <v>38047</v>
@@ -6969,7 +6997,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="39">
         <f t="shared" si="6"/>
         <v>38078</v>
@@ -6990,7 +7018,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="39">
         <f t="shared" si="6"/>
         <v>38108</v>
@@ -7011,7 +7039,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="39">
         <f t="shared" si="6"/>
         <v>38139</v>
@@ -7032,7 +7060,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="39">
         <f t="shared" si="6"/>
         <v>38169</v>
@@ -7053,7 +7081,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="39">
         <f t="shared" si="6"/>
         <v>38200</v>
@@ -7074,7 +7102,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="39">
         <f t="shared" si="6"/>
         <v>38231</v>
@@ -7097,7 +7125,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="39"/>
       <c r="B147" s="20" t="s">
         <v>59</v>
@@ -7117,7 +7145,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="39"/>
       <c r="B148" s="20" t="s">
         <v>58</v>
@@ -7139,7 +7167,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="39">
         <f>EDATE(A146,1)</f>
         <v>38261</v>
@@ -7157,7 +7185,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="39"/>
       <c r="B150" s="20" t="s">
         <v>150</v>
@@ -7179,7 +7207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="39"/>
       <c r="B151" s="20" t="s">
         <v>152</v>
@@ -7199,7 +7227,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="39">
         <f>EDATE(A149,1)</f>
         <v>38292</v>
@@ -7224,7 +7252,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="39">
         <f t="shared" si="6"/>
         <v>38322</v>
@@ -7249,7 +7277,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="39"/>
       <c r="B154" s="20" t="s">
         <v>155</v>
@@ -7271,8 +7299,8 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="53" t="s">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="52" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="20"/>
@@ -7289,7 +7317,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="39">
         <v>38353</v>
       </c>
@@ -7309,11 +7337,11 @@
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="52">
+      <c r="K156" s="51">
         <v>44937</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="39"/>
       <c r="B157" s="20" t="s">
         <v>57</v>
@@ -7331,11 +7359,11 @@
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="52">
+      <c r="K157" s="51">
         <v>44954</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="39"/>
       <c r="B158" s="20" t="s">
         <v>157</v>
@@ -7357,7 +7385,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="39">
         <f>EDATE(A156,1)</f>
         <v>38384</v>
@@ -7382,7 +7410,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="39">
         <f t="shared" ref="A160:A174" si="7">EDATE(A159,1)</f>
         <v>38412</v>
@@ -7403,11 +7431,11 @@
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="52">
+      <c r="K160" s="51">
         <v>45002</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="39"/>
       <c r="B161" s="20" t="s">
         <v>159</v>
@@ -7429,7 +7457,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="39">
         <f>EDATE(A160,1)</f>
         <v>38443</v>
@@ -7450,11 +7478,11 @@
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="52">
+      <c r="K162" s="51">
         <v>45027</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="39"/>
       <c r="B163" s="20" t="s">
         <v>160</v>
@@ -7476,7 +7504,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="39">
         <f>EDATE(A162,1)</f>
         <v>38473</v>
@@ -7501,7 +7529,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="39"/>
       <c r="B165" s="20" t="s">
         <v>53</v>
@@ -7523,7 +7551,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="39"/>
       <c r="B166" s="20" t="s">
         <v>163</v>
@@ -7545,7 +7573,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="39">
         <f>EDATE(A164,1)</f>
         <v>38504</v>
@@ -7568,7 +7596,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="39"/>
       <c r="B168" s="20" t="s">
         <v>57</v>
@@ -7586,11 +7614,11 @@
       </c>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="52">
+      <c r="K168" s="51">
         <v>45105</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="39"/>
       <c r="B169" s="20" t="s">
         <v>80</v>
@@ -7612,7 +7640,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="39">
         <f>EDATE(A167,1)</f>
         <v>38534</v>
@@ -7633,11 +7661,11 @@
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="52">
+      <c r="K170" s="51">
         <v>45120</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="39"/>
       <c r="B171" s="20" t="s">
         <v>57</v>
@@ -7655,11 +7683,11 @@
       </c>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="52">
+      <c r="K171" s="51">
         <v>45125</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="39"/>
       <c r="B172" s="20" t="s">
         <v>165</v>
@@ -7681,7 +7709,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="39">
         <f>EDATE(A170,1)</f>
         <v>38565</v>
@@ -7706,7 +7734,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="39">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7727,11 +7755,11 @@
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="52">
+      <c r="K174" s="51">
         <v>45170</v>
       </c>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="39"/>
       <c r="B175" s="20" t="s">
         <v>57</v>
@@ -7749,11 +7777,11 @@
       </c>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="52">
+      <c r="K175" s="51">
         <v>45199</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="39"/>
       <c r="B176" s="20" t="s">
         <v>167</v>
@@ -7775,7 +7803,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="39">
         <f>EDATE(A174,1)</f>
         <v>38626</v>
@@ -7798,7 +7826,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="39"/>
       <c r="B178" s="20" t="s">
         <v>168</v>
@@ -7820,7 +7848,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="39">
         <f>EDATE(A177,1)</f>
         <v>38657</v>
@@ -7845,7 +7873,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="39"/>
       <c r="B180" s="20" t="s">
         <v>171</v>
@@ -7867,7 +7895,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="39">
         <f>EDATE(A179,1)</f>
         <v>38687</v>
@@ -7892,7 +7920,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="39"/>
       <c r="B182" s="20" t="s">
         <v>96</v>
@@ -7912,8 +7940,8 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
-      <c r="A183" s="53" t="s">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="52" t="s">
         <v>173</v>
       </c>
       <c r="B183" s="20"/>
@@ -7930,7 +7958,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="39">
         <v>38718</v>
       </c>
@@ -7954,7 +7982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="39"/>
       <c r="B185" s="20" t="s">
         <v>48</v>
@@ -7976,7 +8004,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="39"/>
       <c r="B186" s="20" t="s">
         <v>121</v>
@@ -7996,7 +8024,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="39"/>
       <c r="B187" s="20" t="s">
         <v>178</v>
@@ -8018,7 +8046,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="39">
         <f>EDATE(A184,1)</f>
         <v>38749</v>
@@ -8039,11 +8067,11 @@
       </c>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="52">
+      <c r="K188" s="51">
         <v>44960</v>
       </c>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="39"/>
       <c r="B189" s="20" t="s">
         <v>179</v>
@@ -8065,7 +8093,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="39">
         <f>EDATE(A188,1)</f>
         <v>38777</v>
@@ -8090,7 +8118,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="39">
         <f t="shared" ref="A191:A201" si="8">EDATE(A190,1)</f>
         <v>38808</v>
@@ -8111,7 +8139,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="39"/>
       <c r="B192" s="20" t="s">
         <v>48</v>
@@ -8133,7 +8161,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="39"/>
       <c r="B193" s="20" t="s">
         <v>182</v>
@@ -8153,7 +8181,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="39">
         <f>EDATE(A191,1)</f>
         <v>38838</v>
@@ -8178,7 +8206,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="39">
         <f t="shared" si="8"/>
         <v>38869</v>
@@ -8203,7 +8231,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="39"/>
       <c r="B196" s="20" t="s">
         <v>53</v>
@@ -8225,7 +8253,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="39"/>
       <c r="B197" s="20" t="s">
         <v>184</v>
@@ -8247,7 +8275,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="39">
         <f>EDATE(A195,1)</f>
         <v>38899</v>
@@ -8268,11 +8296,11 @@
       </c>
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="52">
+      <c r="K198" s="51">
         <v>45131</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="39"/>
       <c r="B199" s="20" t="s">
         <v>187</v>
@@ -8294,7 +8322,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="39">
         <f>EDATE(A198,1)</f>
         <v>38930</v>
@@ -8319,7 +8347,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="39">
         <f t="shared" si="8"/>
         <v>38961</v>
@@ -8344,7 +8372,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="39"/>
       <c r="B202" s="20" t="s">
         <v>189</v>
@@ -8366,7 +8394,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="39">
         <f>EDATE(A201,1)</f>
         <v>38991</v>
@@ -8387,11 +8415,11 @@
       </c>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="52">
+      <c r="K203" s="51">
         <v>45219</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="39"/>
       <c r="B204" s="20" t="s">
         <v>191</v>
@@ -8413,7 +8441,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="39">
         <f>EDATE(A203,1)</f>
         <v>39022</v>
@@ -8438,7 +8466,7 @@
       <c r="J205" s="12"/>
       <c r="K205" s="15"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="39">
         <f t="shared" ref="A206" si="9">EDATE(A205,1)</f>
         <v>39052</v>
@@ -8457,11 +8485,11 @@
       <c r="H206" s="38"/>
       <c r="I206" s="9"/>
       <c r="J206" s="11"/>
-      <c r="K206" s="52">
+      <c r="K206" s="51">
         <v>45279</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="39"/>
       <c r="B207" s="20" t="s">
         <v>193</v>
@@ -8483,8 +8511,8 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11">
-      <c r="A208" s="53" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="52" t="s">
         <v>194</v>
       </c>
       <c r="B208" s="20"/>
@@ -8501,7 +8529,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="39">
         <v>39083</v>
       </c>
@@ -8523,7 +8551,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="39"/>
       <c r="B210" s="20" t="s">
         <v>196</v>
@@ -8545,7 +8573,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="39">
         <f>EDATE(A209,1)</f>
         <v>39114</v>
@@ -8566,11 +8594,11 @@
       </c>
       <c r="I211" s="9"/>
       <c r="J211" s="11"/>
-      <c r="K211" s="52">
+      <c r="K211" s="51">
         <v>44958</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="39"/>
       <c r="B212" s="20" t="s">
         <v>197</v>
@@ -8592,7 +8620,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="39">
         <f>EDATE(A211,1)</f>
         <v>39142</v>
@@ -8617,7 +8645,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="39">
         <f t="shared" ref="A214:A225" si="10">EDATE(A213,1)</f>
         <v>39173</v>
@@ -8627,7 +8655,7 @@
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="42"/>
-      <c r="E214" s="54"/>
+      <c r="E214" s="53"/>
       <c r="F214" s="15"/>
       <c r="G214" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -8636,13 +8664,13 @@
       <c r="H214" s="42">
         <v>2</v>
       </c>
-      <c r="I214" s="54"/>
+      <c r="I214" s="53"/>
       <c r="J214" s="12"/>
       <c r="K214" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="39"/>
       <c r="B215" s="20" t="s">
         <v>200</v>
@@ -8664,7 +8692,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="39">
         <f>EDATE(A214,1)</f>
         <v>39203</v>
@@ -8689,7 +8717,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="39"/>
       <c r="B217" s="20" t="s">
         <v>201</v>
@@ -8711,7 +8739,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="39">
         <f>EDATE(A216,1)</f>
         <v>39234</v>
@@ -8736,7 +8764,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="39">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -8761,7 +8789,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="39">
         <f t="shared" si="10"/>
         <v>39295</v>
@@ -8782,11 +8810,11 @@
       </c>
       <c r="I220" s="9"/>
       <c r="J220" s="11"/>
-      <c r="K220" s="52">
+      <c r="K220" s="51">
         <v>45144</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="39"/>
       <c r="B221" s="20" t="s">
         <v>204</v>
@@ -8808,7 +8836,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="39">
         <f>EDATE(A220,1)</f>
         <v>39326</v>
@@ -8833,7 +8861,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="39"/>
       <c r="B223" s="20" t="s">
         <v>206</v>
@@ -8855,7 +8883,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="39">
         <f>EDATE(A222,1)</f>
         <v>39356</v>
@@ -8880,7 +8908,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="39">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -8901,11 +8929,11 @@
       </c>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
-      <c r="K225" s="52">
+      <c r="K225" s="51">
         <v>45253</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="39"/>
       <c r="B226" s="20" t="s">
         <v>208</v>
@@ -8927,7 +8955,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="39">
         <f>EDATE(A225,1)</f>
         <v>39417</v>
@@ -8952,7 +8980,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="39"/>
       <c r="B228" s="20" t="s">
         <v>174</v>
@@ -8972,7 +9000,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="39"/>
       <c r="B229" s="20" t="s">
         <v>210</v>
@@ -8994,8 +9022,8 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
-      <c r="A230" s="53" t="s">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="52" t="s">
         <v>211</v>
       </c>
       <c r="B230" s="20"/>
@@ -9012,7 +9040,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="39">
         <v>39448</v>
       </c>
@@ -9036,7 +9064,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="39">
         <f>EDATE(A231,1)</f>
         <v>39479</v>
@@ -9061,7 +9089,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="39">
         <f t="shared" ref="A233:A250" si="11">EDATE(A232,1)</f>
         <v>39508</v>
@@ -9086,7 +9114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="39"/>
       <c r="B234" s="20" t="s">
         <v>215</v>
@@ -9108,7 +9136,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="39">
         <f>EDATE(A233,1)</f>
         <v>39539</v>
@@ -9133,7 +9161,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="39">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -9156,7 +9184,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="39"/>
       <c r="B237" s="20" t="s">
         <v>59</v>
@@ -9176,7 +9204,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="39"/>
       <c r="B238" s="20" t="s">
         <v>48</v>
@@ -9198,7 +9226,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="39"/>
       <c r="B239" s="20" t="s">
         <v>220</v>
@@ -9220,7 +9248,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="39">
         <f>EDATE(A236,1)</f>
         <v>39600</v>
@@ -9245,7 +9273,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="39">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -9266,11 +9294,11 @@
       </c>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
-      <c r="K241" s="52">
+      <c r="K241" s="51">
         <v>45121</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="39"/>
       <c r="B242" s="20" t="s">
         <v>223</v>
@@ -9292,7 +9320,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="39">
         <f>EDATE(A241,1)</f>
         <v>39661</v>
@@ -9313,11 +9341,11 @@
       </c>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="52">
+      <c r="K243" s="51">
         <v>45159</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="39"/>
       <c r="B244" s="20" t="s">
         <v>222</v>
@@ -9339,7 +9367,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="39">
         <f>EDATE(A243,1)</f>
         <v>39692</v>
@@ -9360,11 +9388,11 @@
       </c>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="55" t="s">
+      <c r="K245" s="54" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="39"/>
       <c r="B246" s="20" t="s">
         <v>226</v>
@@ -9386,7 +9414,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="39">
         <f>EDATE(A245,1)</f>
         <v>39722</v>
@@ -9411,7 +9439,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="39"/>
       <c r="B248" s="20" t="s">
         <v>228</v>
@@ -9433,7 +9461,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="39">
         <f>EDATE(A247,1)</f>
         <v>39753</v>
@@ -9458,7 +9486,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="39">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -9481,11 +9509,11 @@
       </c>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="52">
+      <c r="K250" s="51">
         <v>45272</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="39"/>
       <c r="B251" s="20" t="s">
         <v>174</v>
@@ -9505,7 +9533,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="39"/>
       <c r="B252" s="20" t="s">
         <v>230</v>
@@ -9525,8 +9553,8 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="53" t="s">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="52" t="s">
         <v>231</v>
       </c>
       <c r="B253" s="20"/>
@@ -9543,7 +9571,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="39">
         <v>39814</v>
       </c>
@@ -9567,7 +9595,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="39"/>
       <c r="B255" s="20" t="s">
         <v>233</v>
@@ -9589,7 +9617,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="39">
         <f>EDATE(A254,1)</f>
         <v>39845</v>
@@ -9610,11 +9638,11 @@
       </c>
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="52">
+      <c r="K256" s="51">
         <v>44980</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="39"/>
       <c r="B257" s="20" t="s">
         <v>187</v>
@@ -9636,7 +9664,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="39">
         <f>EDATE(A256,1)</f>
         <v>39873</v>
@@ -9659,7 +9687,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="39"/>
       <c r="B259" s="20" t="s">
         <v>235</v>
@@ -9681,7 +9709,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="39">
         <f>EDATE(A258,1)</f>
         <v>39904</v>
@@ -9706,7 +9734,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="39"/>
       <c r="B261" s="20" t="s">
         <v>53</v>
@@ -9728,7 +9756,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="39"/>
       <c r="B262" s="20" t="s">
         <v>238</v>
@@ -9750,7 +9778,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="39">
         <f>EDATE(A260,1)</f>
         <v>39934</v>
@@ -9771,11 +9799,11 @@
       </c>
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
-      <c r="K263" s="56">
+      <c r="K263" s="55">
         <v>43952</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="39"/>
       <c r="B264" s="20" t="s">
         <v>239</v>
@@ -9797,7 +9825,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="39">
         <f>EDATE(A263,1)</f>
         <v>39965</v>
@@ -9822,7 +9850,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="39">
         <f t="shared" ref="A266:A270" si="12">EDATE(A265,1)</f>
         <v>39995</v>
@@ -9843,11 +9871,11 @@
       </c>
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
-      <c r="K266" s="52">
+      <c r="K266" s="51">
         <v>45137</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="39"/>
       <c r="B267" s="20" t="s">
         <v>240</v>
@@ -9869,7 +9897,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="39">
         <f>EDATE(A266,1)</f>
         <v>40026</v>
@@ -9894,7 +9922,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="39">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -9919,7 +9947,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="39">
         <f t="shared" si="12"/>
         <v>40087</v>
@@ -9944,7 +9972,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="39"/>
       <c r="B271" s="20" t="s">
         <v>59</v>
@@ -9964,7 +9992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="39"/>
       <c r="B272" s="20" t="s">
         <v>53</v>
@@ -9986,7 +10014,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="39"/>
       <c r="B273" s="20" t="s">
         <v>244</v>
@@ -10008,7 +10036,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="39">
         <f>EDATE(A270,1)</f>
         <v>40118</v>
@@ -10033,7 +10061,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="39"/>
       <c r="B275" s="20" t="s">
         <v>53</v>
@@ -10055,7 +10083,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="39"/>
       <c r="B276" s="20" t="s">
         <v>248</v>
@@ -10077,7 +10105,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="39">
         <f>EDATE(A274,1)</f>
         <v>40148</v>
@@ -10102,7 +10130,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="39"/>
       <c r="B278" s="20" t="s">
         <v>250</v>
@@ -10124,8 +10152,8 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11">
-      <c r="A279" s="53" t="s">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="52" t="s">
         <v>251</v>
       </c>
       <c r="B279" s="20"/>
@@ -10142,7 +10170,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="39">
         <v>40179</v>
       </c>
@@ -10162,11 +10190,11 @@
       </c>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
-      <c r="K280" s="52">
+      <c r="K280" s="51">
         <v>44935</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="39"/>
       <c r="B281" s="20" t="s">
         <v>252</v>
@@ -10188,7 +10216,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="39">
         <f>EDATE(A280,1)</f>
         <v>40210</v>
@@ -10213,7 +10241,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="39"/>
       <c r="B283" s="20" t="s">
         <v>254</v>
@@ -10235,7 +10263,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="39">
         <f>EDATE(A282,1)</f>
         <v>40238</v>
@@ -10256,11 +10284,11 @@
       </c>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
-      <c r="K284" s="52">
+      <c r="K284" s="51">
         <v>45016</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="39"/>
       <c r="B285" s="20" t="s">
         <v>255</v>
@@ -10282,7 +10310,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="39">
         <f>EDATE(A284,1)</f>
         <v>40269</v>
@@ -10303,11 +10331,11 @@
       </c>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
-      <c r="K286" s="52">
+      <c r="K286" s="51">
         <v>45036</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="39"/>
       <c r="B287" s="20" t="s">
         <v>256</v>
@@ -10329,7 +10357,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="39">
         <f>EDATE(A286,1)</f>
         <v>40299</v>
@@ -10350,11 +10378,11 @@
       </c>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="52">
+      <c r="K288" s="51">
         <v>45072</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="39"/>
       <c r="B289" s="20" t="s">
         <v>257</v>
@@ -10376,7 +10404,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="39">
         <f>EDATE(A288,1)</f>
         <v>40330</v>
@@ -10401,7 +10429,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="39">
         <f t="shared" ref="A291:A298" si="13">EDATE(A290,1)</f>
         <v>40360</v>
@@ -10422,11 +10450,11 @@
       </c>
       <c r="I291" s="9"/>
       <c r="J291" s="11"/>
-      <c r="K291" s="52">
+      <c r="K291" s="51">
         <v>45115</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="39"/>
       <c r="B292" s="20" t="s">
         <v>53</v>
@@ -10448,7 +10476,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="39"/>
       <c r="B293" s="20" t="s">
         <v>260</v>
@@ -10470,7 +10498,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="39">
         <f>EDATE(A291,1)</f>
         <v>40391</v>
@@ -10495,7 +10523,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="39">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -10516,7 +10544,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="39">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -10537,7 +10565,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="39">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -10558,7 +10586,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="39">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -10583,8 +10611,8 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
-      <c r="A299" s="53" t="s">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="52" t="s">
         <v>262</v>
       </c>
       <c r="B299" s="20"/>
@@ -10601,7 +10629,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>40544</v>
       </c>
@@ -10610,18 +10638,18 @@
         <v>1.25</v>
       </c>
       <c r="D300" s="42"/>
-      <c r="E300" s="54"/>
+      <c r="E300" s="53"/>
       <c r="F300" s="15"/>
       <c r="G300" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H300" s="42"/>
-      <c r="I300" s="54"/>
+      <c r="I300" s="53"/>
       <c r="J300" s="12"/>
       <c r="K300" s="15"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="39">
         <f>EDATE(A300,1)</f>
         <v>40575</v>
@@ -10642,7 +10670,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="39">
         <f t="shared" ref="A302:A311" si="14">EDATE(A301,1)</f>
         <v>40603</v>
@@ -10663,7 +10691,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="39">
         <f t="shared" si="14"/>
         <v>40634</v>
@@ -10684,7 +10712,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="39">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -10709,7 +10737,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="39"/>
       <c r="B305" s="20"/>
       <c r="C305" s="41">
@@ -10727,7 +10755,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="39">
         <f>EDATE(A304,1)</f>
         <v>40695</v>
@@ -10748,7 +10776,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="39">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -10769,7 +10797,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="39">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -10790,7 +10818,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="39">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -10811,7 +10839,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="39">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -10832,7 +10860,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="39">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -10857,7 +10885,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="39"/>
       <c r="B312" s="20"/>
       <c r="C312" s="41">
@@ -10875,7 +10903,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="39">
         <f>EDATE(A311,1)</f>
         <v>40878</v>
@@ -10900,7 +10928,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="39"/>
       <c r="B314" s="20" t="s">
         <v>268</v>
@@ -10922,8 +10950,8 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11">
-      <c r="A315" s="53" t="s">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="52" t="s">
         <v>269</v>
       </c>
       <c r="B315" s="20"/>
@@ -10940,7 +10968,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="39">
         <v>40909</v>
       </c>
@@ -10964,7 +10992,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="39"/>
       <c r="B317" s="20" t="s">
         <v>108</v>
@@ -10986,7 +11014,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="39">
         <f>EDATE(A316,1)</f>
         <v>40940</v>
@@ -11011,7 +11039,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="39"/>
       <c r="B319" s="20" t="s">
         <v>274</v>
@@ -11033,7 +11061,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="39">
         <f>EDATE(A318,1)</f>
         <v>40969</v>
@@ -11058,7 +11086,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="39"/>
       <c r="B321" s="20" t="s">
         <v>276</v>
@@ -11080,7 +11108,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="39">
         <f>EDATE(A320,1)</f>
         <v>41000</v>
@@ -11105,7 +11133,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="39">
         <f t="shared" ref="A323:A330" si="15">EDATE(A322,1)</f>
         <v>41030</v>
@@ -11130,7 +11158,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="39"/>
       <c r="B324" s="20" t="s">
         <v>278</v>
@@ -11152,7 +11180,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="39">
         <f>EDATE(A323,1)</f>
         <v>41061</v>
@@ -11177,7 +11205,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="39">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -11202,7 +11230,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="39">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -11227,7 +11255,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="39">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -11252,7 +11280,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="39">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -11277,7 +11305,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="39">
         <f t="shared" si="15"/>
         <v>41214</v>
@@ -11302,7 +11330,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="39">
         <f>EDATE(A330,1)</f>
         <v>41244</v>
@@ -11327,7 +11355,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="39"/>
       <c r="B332" s="20" t="s">
         <v>284</v>
@@ -11349,8 +11377,8 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11">
-      <c r="A333" s="53" t="s">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="52" t="s">
         <v>285</v>
       </c>
       <c r="B333" s="20"/>
@@ -11367,7 +11395,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="39">
         <v>41275</v>
       </c>
@@ -11391,7 +11419,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="39">
         <f>EDATE(A334,1)</f>
         <v>41306</v>
@@ -11416,7 +11444,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="39">
         <f t="shared" ref="A336:A346" si="16">EDATE(A335,1)</f>
         <v>41334</v>
@@ -11441,7 +11469,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="39">
         <f t="shared" si="16"/>
         <v>41365</v>
@@ -11453,20 +11481,20 @@
       <c r="D337" s="42">
         <v>4</v>
       </c>
-      <c r="E337" s="54"/>
+      <c r="E337" s="53"/>
       <c r="F337" s="15"/>
       <c r="G337" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H337" s="42"/>
-      <c r="I337" s="54"/>
+      <c r="I337" s="53"/>
       <c r="J337" s="12"/>
       <c r="K337" s="15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="39"/>
       <c r="B338" s="20" t="s">
         <v>291</v>
@@ -11488,7 +11516,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="39">
         <f>EDATE(A337,1)</f>
         <v>41395</v>
@@ -11513,7 +11541,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="39">
         <f t="shared" si="16"/>
         <v>41426</v>
@@ -11538,7 +11566,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="39">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -11563,7 +11591,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="39">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -11588,7 +11616,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="39">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -11613,7 +11641,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="39">
         <f t="shared" si="16"/>
         <v>41548</v>
@@ -11638,7 +11666,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="39">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -11663,7 +11691,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="39">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -11688,7 +11716,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="15" t="s">
         <v>298</v>
@@ -11699,19 +11727,19 @@
       <c r="D347" s="42">
         <v>0.59</v>
       </c>
-      <c r="E347" s="54"/>
+      <c r="E347" s="53"/>
       <c r="F347" s="15"/>
       <c r="G347" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H347" s="42"/>
-      <c r="I347" s="54"/>
+      <c r="I347" s="53"/>
       <c r="J347" s="12"/>
       <c r="K347" s="15"/>
     </row>
-    <row r="348" spans="1:11">
-      <c r="A348" s="53" t="s">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="52" t="s">
         <v>299</v>
       </c>
       <c r="B348" s="20"/>
@@ -11728,7 +11756,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="39">
         <v>41640</v>
       </c>
@@ -11752,7 +11780,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="39">
         <f>EDATE(A349,1)</f>
         <v>41671</v>
@@ -11777,7 +11805,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="39">
         <f t="shared" ref="A351:A361" si="17">EDATE(A350,1)</f>
         <v>41699</v>
@@ -11802,7 +11830,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="39">
         <f t="shared" si="17"/>
         <v>41730</v>
@@ -11827,7 +11855,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="39">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -11848,11 +11876,11 @@
       <c r="H353" s="38"/>
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
-      <c r="K353" s="52">
+      <c r="K353" s="51">
         <v>45072</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="39"/>
       <c r="B354" s="20" t="s">
         <v>96</v>
@@ -11874,7 +11902,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="39"/>
       <c r="B355" s="20" t="s">
         <v>304</v>
@@ -11896,7 +11924,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="39">
         <f>EDATE(A353,1)</f>
         <v>41791</v>
@@ -11921,7 +11949,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="39">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -11946,7 +11974,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="39">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -11971,7 +11999,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="39">
         <f t="shared" si="17"/>
         <v>41883</v>
@@ -11996,7 +12024,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="39">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -12021,7 +12049,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="39">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -12042,7 +12070,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="39">
         <f>EDATE(A361,1)</f>
         <v>41974</v>
@@ -12065,8 +12093,8 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11">
-      <c r="A363" s="53" t="s">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="52" t="s">
         <v>307</v>
       </c>
       <c r="B363" s="20"/>
@@ -12083,7 +12111,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="39">
         <v>42005</v>
       </c>
@@ -12103,7 +12131,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="39">
         <f>EDATE(A364,1)</f>
         <v>42036</v>
@@ -12124,7 +12152,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="39">
         <f t="shared" ref="A366:A375" si="18">EDATE(A365,1)</f>
         <v>42064</v>
@@ -12145,7 +12173,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="39">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -12166,7 +12194,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="39">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -12187,7 +12215,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="39">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -12208,7 +12236,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="39">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -12229,7 +12257,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="39">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -12250,7 +12278,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="39">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -12271,7 +12299,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="39">
         <f t="shared" si="18"/>
         <v>42278</v>
@@ -12292,7 +12320,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="39">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -12313,7 +12341,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="39">
         <f t="shared" si="18"/>
         <v>42339</v>
@@ -12336,8 +12364,8 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11">
-      <c r="A376" s="53" t="s">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="52" t="s">
         <v>308</v>
       </c>
       <c r="B376" s="20"/>
@@ -12354,7 +12382,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="39">
         <v>42370</v>
       </c>
@@ -12374,7 +12402,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="39">
         <f>EDATE(A377,1)</f>
         <v>42401</v>
@@ -12395,7 +12423,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="39">
         <f t="shared" ref="A379:A389" si="19">EDATE(A378,1)</f>
         <v>42430</v>
@@ -12416,7 +12444,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="39">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -12441,7 +12469,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="39"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13">
@@ -12459,7 +12487,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="39">
         <f>EDATE(A380,1)</f>
         <v>42491</v>
@@ -12469,18 +12497,18 @@
         <v>1.25</v>
       </c>
       <c r="D382" s="42"/>
-      <c r="E382" s="54"/>
+      <c r="E382" s="53"/>
       <c r="F382" s="15"/>
       <c r="G382" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H382" s="42"/>
-      <c r="I382" s="54"/>
+      <c r="I382" s="53"/>
       <c r="J382" s="12"/>
       <c r="K382" s="15"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="39">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -12501,7 +12529,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="39">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -12522,7 +12550,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="39">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -12543,7 +12571,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="39">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -12564,7 +12592,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="39">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -12585,7 +12613,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="39">
         <f t="shared" si="19"/>
         <v>42675</v>
@@ -12606,7 +12634,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="39">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -12631,8 +12659,8 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
-      <c r="A390" s="53" t="s">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="52" t="s">
         <v>310</v>
       </c>
       <c r="B390" s="20"/>
@@ -12649,7 +12677,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="39">
         <v>42736</v>
       </c>
@@ -12669,7 +12697,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="39">
         <f>EDATE(A391,1)</f>
         <v>42767</v>
@@ -12690,9 +12718,9 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="39">
-        <f t="shared" ref="A393:A403" si="20">EDATE(A392,1)</f>
+        <f t="shared" ref="A393:A402" si="20">EDATE(A392,1)</f>
         <v>42795</v>
       </c>
       <c r="B393" s="20"/>
@@ -12711,7 +12739,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="39">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -12732,7 +12760,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="39">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -12753,7 +12781,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="39">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -12774,7 +12802,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="39">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -12795,7 +12823,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="39">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -12816,7 +12844,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="39">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -12826,18 +12854,18 @@
         <v>1.25</v>
       </c>
       <c r="D399" s="42"/>
-      <c r="E399" s="54"/>
+      <c r="E399" s="53"/>
       <c r="F399" s="15"/>
       <c r="G399" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H399" s="42"/>
-      <c r="I399" s="54"/>
+      <c r="I399" s="53"/>
       <c r="J399" s="12"/>
       <c r="K399" s="15"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="39">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -12858,7 +12886,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="15"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="39">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -12879,7 +12907,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="15"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="39">
         <f t="shared" si="20"/>
         <v>43070</v>
@@ -12904,8 +12932,8 @@
       <c r="J402" s="11"/>
       <c r="K402" s="15"/>
     </row>
-    <row r="403" spans="1:11">
-      <c r="A403" s="53" t="s">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403" s="52" t="s">
         <v>311</v>
       </c>
       <c r="B403" s="20"/>
@@ -12922,9 +12950,9 @@
       <c r="J403" s="11"/>
       <c r="K403" s="15"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="39">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13">
@@ -12942,10 +12970,10 @@
       <c r="J404" s="11"/>
       <c r="K404" s="15"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="39">
         <f>EDATE(A404,1)</f>
-        <v>43132</v>
+        <v>43159</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13">
@@ -12963,10 +12991,9 @@
       <c r="J405" s="11"/>
       <c r="K405" s="15"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="39">
-        <f t="shared" ref="A406:A408" si="21">EDATE(A405,1)</f>
-        <v>43160</v>
+        <v>43190</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13">
@@ -12984,10 +13011,9 @@
       <c r="J406" s="11"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="39">
-        <f t="shared" si="21"/>
-        <v>43191</v>
+        <v>43220</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13">
@@ -13005,10 +13031,9 @@
       <c r="J407" s="11"/>
       <c r="K407" s="15"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="39">
-        <f t="shared" si="21"/>
-        <v>43221</v>
+        <v>43251</v>
       </c>
       <c r="B408" s="20" t="s">
         <v>62</v>
@@ -13030,8 +13055,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
-      <c r="A409" s="39"/>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" s="39">
+        <v>43281</v>
+      </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
         <v>1.25</v>
@@ -13048,69 +13075,2147 @@
       <c r="J409" s="11"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="1:11">
-      <c r="A410" s="39"/>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="39">
+        <v>43312</v>
+      </c>
       <c r="B410" s="20"/>
-      <c r="C410" s="13"/>
+      <c r="C410" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D410" s="38"/>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G410" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H410" s="38"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
       <c r="K410" s="15"/>
     </row>
-    <row r="411" spans="1:11">
-      <c r="A411" s="39"/>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="39">
+        <v>43343</v>
+      </c>
       <c r="B411" s="20"/>
-      <c r="C411" s="13"/>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D411" s="38"/>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G411" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H411" s="38"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
       <c r="K411" s="15"/>
     </row>
-    <row r="412" spans="1:11">
-      <c r="A412" s="39"/>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="39">
+        <v>43373</v>
+      </c>
       <c r="B412" s="20"/>
-      <c r="C412" s="13"/>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D412" s="38"/>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G412" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H412" s="38"/>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
       <c r="K412" s="15"/>
     </row>
-    <row r="413" spans="1:11">
-      <c r="A413" s="39"/>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413" s="39">
+        <v>43404</v>
+      </c>
       <c r="B413" s="20"/>
-      <c r="C413" s="13"/>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D413" s="38"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G413" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H413" s="38"/>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
       <c r="K413" s="15"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="39">
+        <v>43434</v>
+      </c>
+      <c r="B414" s="20"/>
+      <c r="C414" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D414" s="38"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H414" s="38"/>
+      <c r="I414" s="9"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20"/>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="39">
+        <v>43465</v>
+      </c>
+      <c r="B415" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D415" s="38">
+        <v>2</v>
+      </c>
+      <c r="E415" s="9"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H415" s="38"/>
+      <c r="I415" s="9"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="20"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="38"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="38"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="39">
+        <v>43496</v>
+      </c>
+      <c r="B417" s="20"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D417" s="38"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H417" s="38"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="20"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="39">
+        <v>43524</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D418" s="38"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H418" s="38"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="39">
+        <v>43555</v>
+      </c>
+      <c r="B419" s="20"/>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D419" s="38"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H419" s="38"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="20"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="39">
+        <v>43585</v>
+      </c>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D420" s="38"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H420" s="38"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="39">
+        <v>43616</v>
+      </c>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D421" s="38"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H421" s="38"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="39">
+        <v>43646</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D422" s="38"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H422" s="38"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="39">
+        <v>43677</v>
+      </c>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D423" s="38"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H423" s="38"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="39">
+        <v>43708</v>
+      </c>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D424" s="38"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H424" s="38"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="39">
+        <v>43738</v>
+      </c>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D425" s="38"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H425" s="38"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="39">
+        <v>43769</v>
+      </c>
+      <c r="B426" s="20"/>
+      <c r="C426" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D426" s="38"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H426" s="38"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="39">
+        <v>43799</v>
+      </c>
+      <c r="B427" s="20"/>
+      <c r="C427" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D427" s="38"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H427" s="38"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="39">
+        <v>43830</v>
+      </c>
+      <c r="B428" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C428" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D428" s="38">
+        <v>5</v>
+      </c>
+      <c r="E428" s="9"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H428" s="38"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="B429" s="20"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="38"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="20"/>
+      <c r="G429" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H429" s="38"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="20"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="39">
+        <v>43861</v>
+      </c>
+      <c r="B430" s="20"/>
+      <c r="C430" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D430" s="38"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H430" s="38"/>
+      <c r="I430" s="9"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="20"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="39">
+        <v>43890</v>
+      </c>
+      <c r="B431" s="20"/>
+      <c r="C431" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D431" s="38"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H431" s="38"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="20"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="39">
+        <v>43921</v>
+      </c>
+      <c r="B432" s="20"/>
+      <c r="C432" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D432" s="38"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="20"/>
+      <c r="G432" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H432" s="38"/>
+      <c r="I432" s="9"/>
+      <c r="J432" s="11"/>
+      <c r="K432" s="20"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="39">
+        <v>43951</v>
+      </c>
+      <c r="B433" s="20"/>
+      <c r="C433" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D433" s="38"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="20"/>
+      <c r="G433" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H433" s="38"/>
+      <c r="I433" s="9"/>
+      <c r="J433" s="11"/>
+      <c r="K433" s="20"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434" s="39">
+        <v>43982</v>
+      </c>
+      <c r="B434" s="20"/>
+      <c r="C434" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D434" s="38"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="20"/>
+      <c r="G434" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H434" s="38"/>
+      <c r="I434" s="9"/>
+      <c r="J434" s="11"/>
+      <c r="K434" s="20"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435" s="39">
+        <v>44012</v>
+      </c>
+      <c r="B435" s="20"/>
+      <c r="C435" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D435" s="38"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H435" s="38"/>
+      <c r="I435" s="9"/>
+      <c r="J435" s="11"/>
+      <c r="K435" s="20"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436" s="39">
+        <v>44043</v>
+      </c>
+      <c r="B436" s="20"/>
+      <c r="C436" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D436" s="38"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H436" s="38"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="20"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437" s="39">
+        <v>44074</v>
+      </c>
+      <c r="B437" s="20"/>
+      <c r="C437" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D437" s="38"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H437" s="38"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="20"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438" s="39">
+        <v>44104</v>
+      </c>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D438" s="38"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H438" s="38"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="20"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439" s="39">
+        <v>44135</v>
+      </c>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D439" s="38"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H439" s="38"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="20"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440" s="39">
+        <v>44165</v>
+      </c>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D440" s="38"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H440" s="38"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A441" s="39">
+        <v>44196</v>
+      </c>
+      <c r="B441" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C441" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D441" s="38">
+        <v>5</v>
+      </c>
+      <c r="E441" s="9"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H441" s="38"/>
+      <c r="I441" s="9"/>
+      <c r="J441" s="11"/>
+      <c r="K441" s="20"/>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B442" s="20"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="38"/>
+      <c r="E442" s="9"/>
+      <c r="F442" s="20"/>
+      <c r="G442" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H442" s="38"/>
+      <c r="I442" s="9"/>
+      <c r="J442" s="11"/>
+      <c r="K442" s="20"/>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443" s="39">
+        <v>44227</v>
+      </c>
+      <c r="B443" s="20"/>
+      <c r="C443" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D443" s="38"/>
+      <c r="E443" s="9"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H443" s="38"/>
+      <c r="I443" s="9"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444" s="39">
+        <v>44255</v>
+      </c>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D444" s="38"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H444" s="38"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="39">
+        <v>44286</v>
+      </c>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D445" s="38"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H445" s="38"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446" s="39">
+        <v>44316</v>
+      </c>
+      <c r="B446" s="20"/>
+      <c r="C446" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D446" s="38"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H446" s="38"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="11"/>
+      <c r="K446" s="20"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447" s="39">
+        <v>44347</v>
+      </c>
+      <c r="B447" s="20"/>
+      <c r="C447" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D447" s="38"/>
+      <c r="E447" s="9"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H447" s="38"/>
+      <c r="I447" s="9"/>
+      <c r="J447" s="11"/>
+      <c r="K447" s="20"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A448" s="39">
+        <v>44377</v>
+      </c>
+      <c r="B448" s="20"/>
+      <c r="C448" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D448" s="38"/>
+      <c r="E448" s="9"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H448" s="38"/>
+      <c r="I448" s="9"/>
+      <c r="J448" s="11"/>
+      <c r="K448" s="20"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449" s="39">
+        <v>44408</v>
+      </c>
+      <c r="B449" s="20"/>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D449" s="38"/>
+      <c r="E449" s="9"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H449" s="38"/>
+      <c r="I449" s="9"/>
+      <c r="J449" s="11"/>
+      <c r="K449" s="20"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450" s="39">
+        <v>44439</v>
+      </c>
+      <c r="B450" s="20"/>
+      <c r="C450" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D450" s="38"/>
+      <c r="E450" s="9"/>
+      <c r="F450" s="20"/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H450" s="38"/>
+      <c r="I450" s="9"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="20"/>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451" s="39">
+        <v>44469</v>
+      </c>
+      <c r="B451" s="20"/>
+      <c r="C451" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D451" s="38"/>
+      <c r="E451" s="9"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H451" s="38"/>
+      <c r="I451" s="9"/>
+      <c r="J451" s="11"/>
+      <c r="K451" s="20"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452" s="39">
+        <v>44500</v>
+      </c>
+      <c r="B452" s="20"/>
+      <c r="C452" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D452" s="38"/>
+      <c r="E452" s="9"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H452" s="38"/>
+      <c r="I452" s="9"/>
+      <c r="J452" s="11"/>
+      <c r="K452" s="20"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453" s="39">
+        <v>44530</v>
+      </c>
+      <c r="B453" s="20"/>
+      <c r="C453" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D453" s="38"/>
+      <c r="E453" s="9"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H453" s="38"/>
+      <c r="I453" s="9"/>
+      <c r="J453" s="11"/>
+      <c r="K453" s="20"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454" s="39">
+        <v>44561</v>
+      </c>
+      <c r="B454" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C454" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D454" s="38">
+        <v>5</v>
+      </c>
+      <c r="E454" s="9"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H454" s="38"/>
+      <c r="I454" s="9"/>
+      <c r="J454" s="11"/>
+      <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="38"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="38"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456" s="39">
+        <v>44592</v>
+      </c>
+      <c r="B456" s="20"/>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D456" s="38"/>
+      <c r="E456" s="9"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H456" s="38"/>
+      <c r="I456" s="9"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="20"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457" s="39">
+        <v>44620</v>
+      </c>
+      <c r="B457" s="20"/>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D457" s="38"/>
+      <c r="E457" s="9"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H457" s="38"/>
+      <c r="I457" s="9"/>
+      <c r="J457" s="11"/>
+      <c r="K457" s="20"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A458" s="39">
+        <v>44651</v>
+      </c>
+      <c r="B458" s="20"/>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D458" s="38"/>
+      <c r="E458" s="9"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H458" s="38"/>
+      <c r="I458" s="9"/>
+      <c r="J458" s="11"/>
+      <c r="K458" s="20"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A459" s="39">
+        <v>44681</v>
+      </c>
+      <c r="B459" s="20"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D459" s="38"/>
+      <c r="E459" s="9"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H459" s="38"/>
+      <c r="I459" s="9"/>
+      <c r="J459" s="11"/>
+      <c r="K459" s="20"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="39">
+        <v>44712</v>
+      </c>
+      <c r="B460" s="20"/>
+      <c r="C460" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D460" s="38"/>
+      <c r="E460" s="9"/>
+      <c r="F460" s="20"/>
+      <c r="G460" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H460" s="38"/>
+      <c r="I460" s="9"/>
+      <c r="J460" s="11"/>
+      <c r="K460" s="20"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A461" s="39">
+        <v>44742</v>
+      </c>
+      <c r="B461" s="20"/>
+      <c r="C461" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D461" s="38"/>
+      <c r="E461" s="9"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H461" s="38"/>
+      <c r="I461" s="9"/>
+      <c r="J461" s="11"/>
+      <c r="K461" s="20"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A462" s="39">
+        <v>44773</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D462" s="38"/>
+      <c r="E462" s="9"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H462" s="38"/>
+      <c r="I462" s="9"/>
+      <c r="J462" s="11"/>
+      <c r="K462" s="20"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A463" s="39">
+        <v>44804</v>
+      </c>
+      <c r="B463" s="20"/>
+      <c r="C463" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D463" s="38"/>
+      <c r="E463" s="9"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H463" s="38"/>
+      <c r="I463" s="9"/>
+      <c r="J463" s="11"/>
+      <c r="K463" s="20"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A464" s="39">
+        <v>44834</v>
+      </c>
+      <c r="B464" s="20"/>
+      <c r="C464" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D464" s="38"/>
+      <c r="E464" s="9"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H464" s="38"/>
+      <c r="I464" s="9"/>
+      <c r="J464" s="11"/>
+      <c r="K464" s="20"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A465" s="39">
+        <v>44865</v>
+      </c>
+      <c r="B465" s="20"/>
+      <c r="C465" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D465" s="38"/>
+      <c r="E465" s="9"/>
+      <c r="F465" s="20"/>
+      <c r="G465" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H465" s="38"/>
+      <c r="I465" s="9"/>
+      <c r="J465" s="11"/>
+      <c r="K465" s="20"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A466" s="39">
+        <v>44895</v>
+      </c>
+      <c r="B466" s="20"/>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D466" s="38"/>
+      <c r="E466" s="9"/>
+      <c r="F466" s="20"/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H466" s="38"/>
+      <c r="I466" s="9"/>
+      <c r="J466" s="11"/>
+      <c r="K466" s="20"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A467" s="39">
+        <v>44926</v>
+      </c>
+      <c r="B467" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C467" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D467" s="38">
+        <v>5</v>
+      </c>
+      <c r="E467" s="9"/>
+      <c r="F467" s="20"/>
+      <c r="G467" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H467" s="38"/>
+      <c r="I467" s="9"/>
+      <c r="J467" s="11"/>
+      <c r="K467" s="20"/>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A468" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="B468" s="20"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="38"/>
+      <c r="E468" s="9"/>
+      <c r="F468" s="20"/>
+      <c r="G468" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H468" s="38"/>
+      <c r="I468" s="9"/>
+      <c r="J468" s="11"/>
+      <c r="K468" s="20"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A469" s="39">
+        <v>44957</v>
+      </c>
+      <c r="B469" s="20"/>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D469" s="38"/>
+      <c r="E469" s="9"/>
+      <c r="F469" s="20"/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H469" s="38"/>
+      <c r="I469" s="9"/>
+      <c r="J469" s="11"/>
+      <c r="K469" s="20"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A470" s="39">
+        <v>44985</v>
+      </c>
+      <c r="B470" s="20"/>
+      <c r="C470" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D470" s="38"/>
+      <c r="E470" s="9"/>
+      <c r="F470" s="20"/>
+      <c r="G470" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H470" s="38"/>
+      <c r="I470" s="9"/>
+      <c r="J470" s="11"/>
+      <c r="K470" s="20"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A471" s="39">
+        <v>45016</v>
+      </c>
+      <c r="B471" s="20"/>
+      <c r="C471" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D471" s="38"/>
+      <c r="E471" s="9"/>
+      <c r="F471" s="20"/>
+      <c r="G471" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H471" s="38"/>
+      <c r="I471" s="9"/>
+      <c r="J471" s="11"/>
+      <c r="K471" s="20"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A472" s="39">
+        <v>45046</v>
+      </c>
+      <c r="B472" s="20"/>
+      <c r="C472" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D472" s="38"/>
+      <c r="E472" s="9"/>
+      <c r="F472" s="20"/>
+      <c r="G472" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H472" s="38"/>
+      <c r="I472" s="9"/>
+      <c r="J472" s="11"/>
+      <c r="K472" s="20"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A473" s="39">
+        <v>45077</v>
+      </c>
+      <c r="B473" s="20"/>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D473" s="38"/>
+      <c r="E473" s="9"/>
+      <c r="F473" s="20"/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H473" s="38"/>
+      <c r="I473" s="9"/>
+      <c r="J473" s="11"/>
+      <c r="K473" s="20"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A474" s="39">
+        <v>45107</v>
+      </c>
+      <c r="B474" s="20"/>
+      <c r="C474" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D474" s="38"/>
+      <c r="E474" s="9"/>
+      <c r="F474" s="20"/>
+      <c r="G474" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H474" s="38"/>
+      <c r="I474" s="9"/>
+      <c r="J474" s="11"/>
+      <c r="K474" s="20"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A475" s="39">
+        <v>45138</v>
+      </c>
+      <c r="B475" s="20"/>
+      <c r="C475" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D475" s="38"/>
+      <c r="E475" s="9"/>
+      <c r="F475" s="20"/>
+      <c r="G475" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H475" s="38"/>
+      <c r="I475" s="9"/>
+      <c r="J475" s="11"/>
+      <c r="K475" s="20"/>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="39">
+        <v>45169</v>
+      </c>
+      <c r="B476" s="20"/>
+      <c r="C476" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D476" s="38"/>
+      <c r="E476" s="9"/>
+      <c r="F476" s="20"/>
+      <c r="G476" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H476" s="38"/>
+      <c r="I476" s="9"/>
+      <c r="J476" s="11"/>
+      <c r="K476" s="20"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A477" s="39">
+        <v>45199</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D477" s="38"/>
+      <c r="E477" s="9"/>
+      <c r="F477" s="20"/>
+      <c r="G477" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H477" s="38"/>
+      <c r="I477" s="9"/>
+      <c r="J477" s="11"/>
+      <c r="K477" s="20"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A478" s="39">
+        <v>45230</v>
+      </c>
+      <c r="B478" s="20"/>
+      <c r="C478" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D478" s="38"/>
+      <c r="E478" s="9"/>
+      <c r="F478" s="20"/>
+      <c r="G478" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H478" s="38"/>
+      <c r="I478" s="9"/>
+      <c r="J478" s="11"/>
+      <c r="K478" s="20"/>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A479" s="39">
+        <v>45260</v>
+      </c>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D479" s="38"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H479" s="38"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A480" s="39">
+        <v>45291</v>
+      </c>
+      <c r="B480" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C480" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D480" s="38">
+        <v>5</v>
+      </c>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H480" s="38"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="38"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H481" s="38"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="39">
+        <v>45322</v>
+      </c>
+      <c r="B482" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C482" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D482" s="38"/>
+      <c r="E482" s="9"/>
+      <c r="F482" s="20"/>
+      <c r="G482" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H482" s="38"/>
+      <c r="I482" s="9"/>
+      <c r="J482" s="11"/>
+      <c r="K482" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A483" s="39">
+        <v>45351</v>
+      </c>
+      <c r="B483" s="20"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="38"/>
+      <c r="E483" s="9"/>
+      <c r="F483" s="20"/>
+      <c r="G483" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H483" s="38"/>
+      <c r="I483" s="9"/>
+      <c r="J483" s="11"/>
+      <c r="K483" s="20"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A484" s="39">
+        <v>45382</v>
+      </c>
+      <c r="B484" s="20"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="38"/>
+      <c r="E484" s="9"/>
+      <c r="F484" s="20"/>
+      <c r="G484" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H484" s="38"/>
+      <c r="I484" s="9"/>
+      <c r="J484" s="11"/>
+      <c r="K484" s="20"/>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A485" s="39">
+        <v>45412</v>
+      </c>
+      <c r="B485" s="20"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="38"/>
+      <c r="E485" s="9"/>
+      <c r="F485" s="20"/>
+      <c r="G485" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H485" s="38"/>
+      <c r="I485" s="9"/>
+      <c r="J485" s="11"/>
+      <c r="K485" s="20"/>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A486" s="39">
+        <v>45443</v>
+      </c>
+      <c r="B486" s="20"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="38"/>
+      <c r="E486" s="9"/>
+      <c r="F486" s="20"/>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="38"/>
+      <c r="I486" s="9"/>
+      <c r="J486" s="11"/>
+      <c r="K486" s="20"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A487" s="39">
+        <v>45473</v>
+      </c>
+      <c r="B487" s="20"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="38"/>
+      <c r="E487" s="9"/>
+      <c r="F487" s="20"/>
+      <c r="G487" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H487" s="38"/>
+      <c r="I487" s="9"/>
+      <c r="J487" s="11"/>
+      <c r="K487" s="20"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488" s="39">
+        <v>45504</v>
+      </c>
+      <c r="B488" s="20"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="38"/>
+      <c r="E488" s="9"/>
+      <c r="F488" s="20"/>
+      <c r="G488" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H488" s="38"/>
+      <c r="I488" s="9"/>
+      <c r="J488" s="11"/>
+      <c r="K488" s="20"/>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489" s="39">
+        <v>45535</v>
+      </c>
+      <c r="B489" s="20"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="38"/>
+      <c r="E489" s="9"/>
+      <c r="F489" s="20"/>
+      <c r="G489" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H489" s="38"/>
+      <c r="I489" s="9"/>
+      <c r="J489" s="11"/>
+      <c r="K489" s="20"/>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490" s="39">
+        <v>45565</v>
+      </c>
+      <c r="B490" s="20"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="38"/>
+      <c r="E490" s="9"/>
+      <c r="F490" s="20"/>
+      <c r="G490" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H490" s="38"/>
+      <c r="I490" s="9"/>
+      <c r="J490" s="11"/>
+      <c r="K490" s="20"/>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A491" s="39">
+        <v>45596</v>
+      </c>
+      <c r="B491" s="20"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="38"/>
+      <c r="E491" s="9"/>
+      <c r="F491" s="20"/>
+      <c r="G491" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H491" s="38"/>
+      <c r="I491" s="9"/>
+      <c r="J491" s="11"/>
+      <c r="K491" s="20"/>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A492" s="39">
+        <v>45626</v>
+      </c>
+      <c r="B492" s="20"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="38"/>
+      <c r="E492" s="9"/>
+      <c r="F492" s="20"/>
+      <c r="G492" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H492" s="38"/>
+      <c r="I492" s="9"/>
+      <c r="J492" s="11"/>
+      <c r="K492" s="20"/>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493" s="39">
+        <v>45657</v>
+      </c>
+      <c r="B493" s="20"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="38"/>
+      <c r="E493" s="9"/>
+      <c r="F493" s="20"/>
+      <c r="G493" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H493" s="38"/>
+      <c r="I493" s="9"/>
+      <c r="J493" s="11"/>
+      <c r="K493" s="20"/>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494" s="39">
+        <v>45688</v>
+      </c>
+      <c r="B494" s="20"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="38"/>
+      <c r="E494" s="9"/>
+      <c r="F494" s="20"/>
+      <c r="G494" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H494" s="38"/>
+      <c r="I494" s="9"/>
+      <c r="J494" s="11"/>
+      <c r="K494" s="20"/>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A495" s="39">
+        <v>45716</v>
+      </c>
+      <c r="B495" s="20"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="38"/>
+      <c r="E495" s="9"/>
+      <c r="F495" s="20"/>
+      <c r="G495" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H495" s="38"/>
+      <c r="I495" s="9"/>
+      <c r="J495" s="11"/>
+      <c r="K495" s="20"/>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A496" s="39">
+        <v>45747</v>
+      </c>
+      <c r="B496" s="20"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="38"/>
+      <c r="E496" s="9"/>
+      <c r="F496" s="20"/>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H496" s="38"/>
+      <c r="I496" s="9"/>
+      <c r="J496" s="11"/>
+      <c r="K496" s="20"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497" s="39">
+        <v>45777</v>
+      </c>
+      <c r="B497" s="20"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="38"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="20"/>
+      <c r="G497" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H497" s="38"/>
+      <c r="I497" s="9"/>
+      <c r="J497" s="11"/>
+      <c r="K497" s="20"/>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498" s="39">
+        <v>45808</v>
+      </c>
+      <c r="B498" s="20"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="38"/>
+      <c r="E498" s="9"/>
+      <c r="F498" s="20"/>
+      <c r="G498" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H498" s="38"/>
+      <c r="I498" s="9"/>
+      <c r="J498" s="11"/>
+      <c r="K498" s="20"/>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499" s="39">
+        <v>45838</v>
+      </c>
+      <c r="B499" s="20"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="38"/>
+      <c r="E499" s="9"/>
+      <c r="F499" s="20"/>
+      <c r="G499" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H499" s="38"/>
+      <c r="I499" s="9"/>
+      <c r="J499" s="11"/>
+      <c r="K499" s="20"/>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500" s="39">
+        <v>45869</v>
+      </c>
+      <c r="B500" s="20"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="38"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="20"/>
+      <c r="G500" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H500" s="38"/>
+      <c r="I500" s="9"/>
+      <c r="J500" s="11"/>
+      <c r="K500" s="20"/>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501" s="39">
+        <v>45900</v>
+      </c>
+      <c r="B501" s="20"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="38"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="20"/>
+      <c r="G501" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H501" s="38"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="11"/>
+      <c r="K501" s="20"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502" s="39">
+        <v>45930</v>
+      </c>
+      <c r="B502" s="20"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="38"/>
+      <c r="E502" s="9"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H502" s="38"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="11"/>
+      <c r="K502" s="20"/>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A503" s="39">
+        <v>45961</v>
+      </c>
+      <c r="B503" s="20"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="38"/>
+      <c r="E503" s="9"/>
+      <c r="F503" s="20"/>
+      <c r="G503" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H503" s="38"/>
+      <c r="I503" s="9"/>
+      <c r="J503" s="11"/>
+      <c r="K503" s="20"/>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A504" s="39">
+        <v>45991</v>
+      </c>
+      <c r="B504" s="20"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="38"/>
+      <c r="E504" s="9"/>
+      <c r="F504" s="20"/>
+      <c r="G504" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H504" s="38"/>
+      <c r="I504" s="9"/>
+      <c r="J504" s="11"/>
+      <c r="K504" s="20"/>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A505" s="39">
+        <v>46022</v>
+      </c>
+      <c r="B505" s="20"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="38"/>
+      <c r="E505" s="9"/>
+      <c r="F505" s="20"/>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H505" s="38"/>
+      <c r="I505" s="9"/>
+      <c r="J505" s="11"/>
+      <c r="K505" s="20"/>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A506" s="39">
+        <v>46053</v>
+      </c>
+      <c r="B506" s="20"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="38"/>
+      <c r="E506" s="9"/>
+      <c r="F506" s="20"/>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H506" s="38"/>
+      <c r="I506" s="9"/>
+      <c r="J506" s="11"/>
+      <c r="K506" s="20"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A507" s="39">
+        <v>46081</v>
+      </c>
+      <c r="B507" s="20"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="38"/>
+      <c r="E507" s="9"/>
+      <c r="F507" s="20"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H507" s="38"/>
+      <c r="I507" s="9"/>
+      <c r="J507" s="11"/>
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="39">
+        <v>46112</v>
+      </c>
+      <c r="B508" s="20"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="38"/>
+      <c r="E508" s="9"/>
+      <c r="F508" s="20"/>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H508" s="38"/>
+      <c r="I508" s="9"/>
+      <c r="J508" s="11"/>
+      <c r="K508" s="20"/>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A509" s="39">
+        <v>46142</v>
+      </c>
+      <c r="B509" s="20"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="38"/>
+      <c r="E509" s="9"/>
+      <c r="F509" s="20"/>
+      <c r="G509" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H509" s="38"/>
+      <c r="I509" s="9"/>
+      <c r="J509" s="11"/>
+      <c r="K509" s="20"/>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="39">
+        <v>46173</v>
+      </c>
+      <c r="B510" s="20"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="38"/>
+      <c r="E510" s="9"/>
+      <c r="F510" s="20"/>
+      <c r="G510" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H510" s="38"/>
+      <c r="I510" s="9"/>
+      <c r="J510" s="11"/>
+      <c r="K510" s="20"/>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="39">
+        <v>46203</v>
+      </c>
+      <c r="B511" s="20"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="38"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H511" s="38"/>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="20"/>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="39">
+        <v>46234</v>
+      </c>
+      <c r="B512" s="20"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="38"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="38"/>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="20"/>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="39">
+        <v>46265</v>
+      </c>
+      <c r="B513" s="20"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="38"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="38"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="20"/>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="39">
+        <v>46295</v>
+      </c>
+      <c r="B514" s="20"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="38"/>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H514" s="38"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20"/>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="39">
+        <v>46326</v>
+      </c>
+      <c r="B515" s="20"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="38"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="38"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="20"/>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="39">
+        <v>46356</v>
+      </c>
+      <c r="B516" s="20"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="38"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="20"/>
+      <c r="G516" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="38"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="11"/>
+      <c r="K516" s="20"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517" s="39">
+        <v>46387</v>
+      </c>
+      <c r="B517" s="20"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="38"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="20"/>
+      <c r="G517" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H517" s="38"/>
+      <c r="I517" s="9"/>
+      <c r="J517" s="11"/>
+      <c r="K517" s="20"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518" s="39">
+        <v>46418</v>
+      </c>
+      <c r="B518" s="20"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="38"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="20"/>
+      <c r="G518" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H518" s="38"/>
+      <c r="I518" s="9"/>
+      <c r="J518" s="11"/>
+      <c r="K518" s="20"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="39">
+        <v>46446</v>
+      </c>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="38"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="38"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13127,10 +15232,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13153,15 +15258,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -13175,20 +15280,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="67" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="J1" s="68" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -13217,9 +15322,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>36.25</v>
+      </c>
+      <c r="B3" s="11">
+        <v>42.25</v>
+      </c>
       <c r="D3">
         <v>3</v>
       </c>
@@ -13243,17 +15352,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>321</v>
+      </c>
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -13267,14 +15379,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>397.26900000000001</v>
+      </c>
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -13301,7 +15417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -13327,7 +15443,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -13353,7 +15469,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -13379,7 +15495,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -13405,7 +15521,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -13431,7 +15547,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -13457,7 +15573,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -13483,7 +15599,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -13503,7 +15619,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -13523,7 +15639,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -13543,7 +15659,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -13564,7 +15680,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -13585,7 +15701,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -13606,7 +15722,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -13627,7 +15743,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -13648,7 +15764,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -13669,7 +15785,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -13690,7 +15806,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -13711,7 +15827,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -13732,7 +15848,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -13753,7 +15869,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -13774,7 +15890,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -13795,7 +15911,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -13816,7 +15932,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -13837,7 +15953,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -13858,7 +15974,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -13879,7 +15995,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -13900,7 +16016,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -13921,7 +16037,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -13942,7 +16058,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -13963,7 +16079,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -13972,7 +16088,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -13981,7 +16097,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -13990,7 +16106,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -13999,7 +16115,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -14008,7 +16124,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -14017,7 +16133,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -14026,7 +16142,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -14035,7 +16151,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -14044,7 +16160,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -14053,7 +16169,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -14062,7 +16178,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -14071,7 +16187,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -14080,7 +16196,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -14089,7 +16205,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -14098,7 +16214,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -14107,7 +16223,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -14116,7 +16232,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -14125,7 +16241,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -14134,7 +16250,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -14143,7 +16259,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -14152,7 +16268,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -14161,7 +16277,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -14170,7 +16286,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -14179,7 +16295,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -14188,7 +16304,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -14197,7 +16313,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -14206,7 +16322,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -14215,7 +16331,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -14224,7 +16340,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
